--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_0_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2479624.63182713</v>
+        <v>2477929.773593239</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>354526.7033797852</v>
+        <v>495863.1233658399</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673419</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>105.6245995301945</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -704,13 +704,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>22.62529567903929</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>190.1066023865956</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>1.197928092376154</v>
+        <v>130.1562265640802</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>183.4693513325733</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>241.0142888776591</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>36.43923176655766</v>
+        <v>35.91678838503961</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.7795714149542</v>
+        <v>209.052390352714</v>
       </c>
       <c r="C11" t="n">
-        <v>340.3186215224812</v>
+        <v>340.318621522481</v>
       </c>
       <c r="D11" t="n">
-        <v>329.7287713721566</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>356.9760998237354</v>
+        <v>356.9760998237352</v>
       </c>
       <c r="F11" t="n">
-        <v>381.9217754931851</v>
+        <v>381.9217754931849</v>
       </c>
       <c r="G11" t="n">
-        <v>387.9966247312782</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>290.4347245022872</v>
       </c>
       <c r="I11" t="n">
-        <v>94.85220997855048</v>
+        <v>94.85220997855032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.4565583785805</v>
+        <v>130.4731875638751</v>
       </c>
       <c r="T11" t="n">
-        <v>187.8463886171957</v>
+        <v>187.8463886171956</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>226.2032352564835</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>302.7979882216084</v>
       </c>
       <c r="W11" t="n">
-        <v>324.2866984688866</v>
+        <v>324.2866984688865</v>
       </c>
       <c r="X11" t="n">
-        <v>344.7768304299427</v>
+        <v>344.7768304299425</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.2836684075272</v>
+        <v>361.283668407527</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.02995793686988</v>
+        <v>22.02995793686989</v>
       </c>
       <c r="S12" t="n">
         <v>148.3099331995005</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.8777099334109</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>123.661202769686</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>121.4796923980426</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77081274701501</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>104.904481317799</v>
       </c>
       <c r="S13" t="n">
-        <v>89.15425775851259</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>198.4837816320203</v>
+        <v>44.17782288072517</v>
       </c>
       <c r="U13" t="n">
-        <v>261.3072160754402</v>
+        <v>261.3072160754401</v>
       </c>
       <c r="V13" t="n">
-        <v>227.1833730753016</v>
+        <v>227.1833730753015</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>200.7553851405106</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.6303831035682</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.7795714149542</v>
+        <v>357.779571414954</v>
       </c>
       <c r="C14" t="n">
-        <v>340.3186215224812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>329.7287713721566</v>
+        <v>329.7287713721564</v>
       </c>
       <c r="E14" t="n">
-        <v>356.9760998237354</v>
+        <v>356.9760998237352</v>
       </c>
       <c r="F14" t="n">
-        <v>206.2638112803959</v>
+        <v>381.9217754931849</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>387.996624731278</v>
       </c>
       <c r="H14" t="n">
-        <v>290.4347245022873</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>94.85220997855048</v>
+        <v>94.85220997855032</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4731875638752</v>
+        <v>130.4731875638751</v>
       </c>
       <c r="T14" t="n">
-        <v>187.8463886171957</v>
+        <v>187.8463886171956</v>
       </c>
       <c r="U14" t="n">
-        <v>226.2032352564837</v>
+        <v>226.2032352564835</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>302.7979882216084</v>
       </c>
       <c r="W14" t="n">
-        <v>324.2866984688866</v>
+        <v>324.2866984688865</v>
       </c>
       <c r="X14" t="n">
-        <v>344.7768304299427</v>
+        <v>344.7768304299425</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.2836684075272</v>
+        <v>125.584437266622</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.02995793686988</v>
+        <v>22.02995793686989</v>
       </c>
       <c r="S15" t="n">
         <v>148.3099331995005</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.8777099334109</v>
+        <v>154.8777099334108</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>142.2925508501013</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.4796923980428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>141.981753513654</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.9044813177992</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.1321156125284</v>
+        <v>180.6773288969399</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>261.3072160754402</v>
+        <v>186.8386631475697</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>227.1833730753015</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>261.5687280880645</v>
       </c>
       <c r="X16" t="n">
-        <v>200.7553851405108</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F17" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G17" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H17" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417208</v>
+        <v>37.08870483417211</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.70968241949681</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U17" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V17" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W17" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X17" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y17" t="n">
         <v>303.5201632631488</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.753474555734982</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C19" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D19" t="n">
-        <v>65.89769762530757</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366439</v>
+        <v>0.2458470430381823</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70327263002646</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G19" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H19" t="n">
-        <v>70.12988281307797</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.14097617342078</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S19" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T19" t="n">
         <v>140.7202764876419</v>
       </c>
       <c r="U19" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V19" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W19" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X19" t="n">
         <v>142.9918799961324</v>
@@ -2099,7 +2099,7 @@
         <v>232.671219357909</v>
       </c>
       <c r="I20" t="n">
-        <v>37.08870483417213</v>
+        <v>37.08870483417211</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.70968241949687</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T20" t="n">
         <v>130.0828834728174</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.11420478903257</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C22" t="n">
-        <v>84.52904570572311</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D22" t="n">
-        <v>62.94911967306369</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G22" t="n">
-        <v>84.21824836927566</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H22" t="n">
-        <v>70.12988281307803</v>
+        <v>70.12988281307801</v>
       </c>
       <c r="I22" t="n">
-        <v>41.00730760263666</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.14097617342084</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S22" t="n">
         <v>122.9138237525617</v>
@@ -2305,7 +2305,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y22" t="n">
-        <v>135.86687795919</v>
+        <v>6.498840123256204</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>232.671219357909</v>
       </c>
       <c r="I23" t="n">
-        <v>37.08870483417213</v>
+        <v>37.08870483417211</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.70968241949687</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T23" t="n">
         <v>130.0828834728174</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C25" t="n">
-        <v>84.52904570572311</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D25" t="n">
-        <v>65.89769762530763</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E25" t="n">
-        <v>63.71618725366444</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F25" t="n">
-        <v>62.70327263002652</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G25" t="n">
-        <v>84.21824836927566</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H25" t="n">
-        <v>70.12988281307803</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I25" t="n">
-        <v>41.00730760263666</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.14097617342084</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S25" t="n">
         <v>122.9138237525617</v>
@@ -2533,10 +2533,10 @@
         <v>203.5437109310619</v>
       </c>
       <c r="V25" t="n">
-        <v>169.4198679309233</v>
+        <v>40.0518300949898</v>
       </c>
       <c r="W25" t="n">
-        <v>171.5513898967839</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X25" t="n">
         <v>142.9918799961324</v>
@@ -2555,7 +2555,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C26" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D26" t="n">
         <v>271.9652662277782</v>
@@ -2567,13 +2567,13 @@
         <v>324.1582703488067</v>
       </c>
       <c r="G26" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H26" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I26" t="n">
-        <v>37.08870483417213</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>72.70968241949687</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T26" t="n">
         <v>130.0828834728174</v>
@@ -2621,7 +2621,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y26" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.11420478903257</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C28" t="n">
-        <v>84.52904570572311</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D28" t="n">
-        <v>65.89769762530763</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E28" t="n">
-        <v>63.71618725366444</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F28" t="n">
-        <v>62.70327263002652</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G28" t="n">
-        <v>84.21824836927566</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H28" t="n">
         <v>70.12988281307804</v>
       </c>
       <c r="I28" t="n">
-        <v>41.00730760263666</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S28" t="n">
         <v>122.9138237525617</v>
       </c>
       <c r="T28" t="n">
-        <v>140.7202764876419</v>
+        <v>52.35954625434346</v>
       </c>
       <c r="U28" t="n">
         <v>203.5437109310619</v>
@@ -2776,10 +2776,10 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X28" t="n">
-        <v>60.76481833361884</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C29" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D29" t="n">
         <v>271.9652662277782</v>
@@ -2810,7 +2810,7 @@
         <v>232.671219357909</v>
       </c>
       <c r="I29" t="n">
-        <v>37.08870483417213</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>72.70968241949687</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T29" t="n">
         <v>130.0828834728174</v>
@@ -2858,7 +2858,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y29" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.11420478903257</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C31" t="n">
-        <v>84.52904570572311</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D31" t="n">
-        <v>65.89769762530763</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>63.71618725366444</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F31" t="n">
-        <v>62.70327263002652</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G31" t="n">
-        <v>84.21824836927566</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H31" t="n">
         <v>70.12988281307804</v>
       </c>
       <c r="I31" t="n">
-        <v>41.00730760263666</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.14097617342084</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9138237525617</v>
+        <v>100.4507911445707</v>
       </c>
       <c r="T31" t="n">
         <v>140.7202764876419</v>
@@ -3013,10 +3013,10 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X31" t="n">
-        <v>13.62384216019775</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="32">
@@ -3187,13 +3187,13 @@
         <v>97.11420478903258</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>62.06601309773201</v>
       </c>
       <c r="D34" t="n">
-        <v>65.89769762530764</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.87719512345197</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F34" t="n">
         <v>62.70327263002653</v>
@@ -3205,7 +3205,7 @@
         <v>70.12988281307804</v>
       </c>
       <c r="I34" t="n">
-        <v>41.00730760263667</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C37" t="n">
         <v>84.52904570572312</v>
@@ -3430,7 +3430,7 @@
         <v>65.89769762530764</v>
       </c>
       <c r="E37" t="n">
-        <v>31.46235420676251</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F37" t="n">
         <v>62.70327263002653</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.14097617342085</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>122.9138237525617</v>
@@ -3478,7 +3478,7 @@
         <v>140.7202764876419</v>
       </c>
       <c r="U37" t="n">
-        <v>203.5437109310619</v>
+        <v>121.3166492685473</v>
       </c>
       <c r="V37" t="n">
         <v>169.4198679309233</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.11420478903258</v>
+        <v>94.16562683678839</v>
       </c>
       <c r="C40" t="n">
         <v>84.52904570572312</v>
@@ -3667,10 +3667,10 @@
         <v>65.89769762530764</v>
       </c>
       <c r="E40" t="n">
-        <v>63.71618725366446</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70327263002653</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>84.21824836927567</v>
@@ -3712,7 +3712,7 @@
         <v>122.9138237525617</v>
       </c>
       <c r="T40" t="n">
-        <v>11.35223865170641</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U40" t="n">
         <v>203.5437109310619</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0160662705759</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C41" t="n">
         <v>282.5551163781029</v>
       </c>
       <c r="D41" t="n">
-        <v>271.9652662277783</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E41" t="n">
-        <v>299.2125946793572</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F41" t="n">
-        <v>324.1582703488068</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G41" t="n">
-        <v>330.2331195868999</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H41" t="n">
-        <v>232.6712193579091</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I41" t="n">
-        <v>37.0887048341722</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.70968241949694</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T41" t="n">
-        <v>130.0828834728175</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U41" t="n">
-        <v>168.4397301121054</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V41" t="n">
         <v>245.0344830772302</v>
       </c>
       <c r="W41" t="n">
-        <v>266.5231933245084</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X41" t="n">
-        <v>287.0133252855644</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y41" t="n">
         <v>303.5201632631489</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.11420478903264</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C43" t="n">
-        <v>84.52904570572318</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D43" t="n">
-        <v>65.8976976253077</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71618725366451</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70327263002659</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G43" t="n">
-        <v>24.98009334641747</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>70.12988281307805</v>
       </c>
       <c r="I43" t="n">
-        <v>41.00730760263673</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.14097617342091</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S43" t="n">
-        <v>122.9138237525618</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T43" t="n">
-        <v>140.720276487642</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U43" t="n">
-        <v>203.543710931062</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V43" t="n">
         <v>169.4198679309233</v>
       </c>
       <c r="W43" t="n">
-        <v>203.8052229436863</v>
+        <v>74.43718510775096</v>
       </c>
       <c r="X43" t="n">
-        <v>142.9918799961325</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y43" t="n">
         <v>135.8668779591901</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0160662705759</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C44" t="n">
         <v>282.5551163781029</v>
       </c>
       <c r="D44" t="n">
-        <v>271.9652662277783</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E44" t="n">
-        <v>299.2125946793572</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F44" t="n">
-        <v>324.1582703488068</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G44" t="n">
         <v>330.2331195868999</v>
       </c>
       <c r="H44" t="n">
-        <v>232.6712193579091</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I44" t="n">
-        <v>37.0887048341722</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.70968241949694</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T44" t="n">
-        <v>130.0828834728175</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U44" t="n">
-        <v>168.4397301121054</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V44" t="n">
         <v>245.0344830772302</v>
       </c>
       <c r="W44" t="n">
-        <v>266.5231933245084</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X44" t="n">
-        <v>287.0133252855644</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y44" t="n">
         <v>303.5201632631489</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.11420478903264</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C46" t="n">
-        <v>84.52904570572318</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D46" t="n">
-        <v>65.8976976253077</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F46" t="n">
-        <v>62.70327263002659</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G46" t="n">
-        <v>84.21824836927573</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H46" t="n">
-        <v>70.1298828130781</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I46" t="n">
-        <v>41.00730760263673</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.14097617342091</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9138237525618</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T46" t="n">
-        <v>140.720276487642</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U46" t="n">
-        <v>203.543710931062</v>
+        <v>74.17567309512617</v>
       </c>
       <c r="V46" t="n">
         <v>169.4198679309233</v>
@@ -4198,10 +4198,10 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X46" t="n">
-        <v>142.9918799961325</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y46" t="n">
-        <v>70.21502737691731</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>366.1018663125844</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>366.1018663125844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D2" t="n">
-        <v>366.1018663125844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E2" t="n">
-        <v>366.1018663125844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>460.1224861050055</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>444.665175483657</v>
       </c>
       <c r="H2" t="n">
         <v>243.9530410142718</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4416,13 +4416,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>934.7112791079849</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>706.487660844374</v>
+        <v>666.6164474949592</v>
       </c>
       <c r="V3" t="n">
-        <v>471.3355526126313</v>
+        <v>431.4643392632165</v>
       </c>
       <c r="W3" t="n">
-        <v>227.8867759685313</v>
+        <v>431.4643392632165</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>431.4643392632165</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>343.4227147053767</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X6" t="n">
-        <v>719.3983504903987</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y6" t="n">
-        <v>511.6380517254448</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4711,7 +4711,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.6192102101089</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C8" t="n">
-        <v>223.6192102101089</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="D8" t="n">
-        <v>223.6192102101089</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>216.6737094609055</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4838,16 +4838,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W8" t="n">
         <v>710.516763498309</v>
       </c>
-      <c r="W8" t="n">
-        <v>467.067986854209</v>
-      </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.6192102101089</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>343.4227147053767</v>
+        <v>491.7024528141798</v>
       </c>
       <c r="C9" t="n">
-        <v>168.9696854242497</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4914,19 +4914,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>927.2498506959315</v>
+        <v>699.5539530197126</v>
       </c>
       <c r="X9" t="n">
-        <v>719.3983504903987</v>
+        <v>491.7024528141798</v>
       </c>
       <c r="Y9" t="n">
-        <v>511.6380517254448</v>
+        <v>491.7024528141798</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
         <v>19.28114311021272</v>
@@ -5005,7 +5005,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1984.109149902833</v>
+        <v>1552.502410911774</v>
       </c>
       <c r="C11" t="n">
-        <v>1640.352966546791</v>
+        <v>1208.746227555733</v>
       </c>
       <c r="D11" t="n">
-        <v>1307.293601524411</v>
+        <v>1208.746227555733</v>
       </c>
       <c r="E11" t="n">
-        <v>946.7116825105368</v>
+        <v>848.1643085418589</v>
       </c>
       <c r="F11" t="n">
-        <v>560.9321113052993</v>
+        <v>462.3847373366215</v>
       </c>
       <c r="G11" t="n">
-        <v>169.0163287484528</v>
+        <v>462.3847373366215</v>
       </c>
       <c r="H11" t="n">
-        <v>169.0163287484528</v>
+        <v>169.0163287484527</v>
       </c>
       <c r="I11" t="n">
-        <v>73.20601563880589</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J11" t="n">
-        <v>258.9898176069169</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K11" t="n">
-        <v>658.1763815223508</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L11" t="n">
         <v>1205.679240092235</v>
@@ -5051,40 +5051,40 @@
         <v>1831.488208231172</v>
       </c>
       <c r="N11" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O11" t="n">
-        <v>2994.282791219485</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P11" t="n">
-        <v>3418.758763931394</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q11" t="n">
-        <v>3660.300781940295</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R11" t="n">
-        <v>3660.300781940295</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S11" t="n">
-        <v>3576.001228022536</v>
+        <v>3528.509683390924</v>
       </c>
       <c r="T11" t="n">
-        <v>3386.25740113648</v>
+        <v>3338.765856504868</v>
       </c>
       <c r="U11" t="n">
-        <v>3386.25740113648</v>
+        <v>3110.277740084178</v>
       </c>
       <c r="V11" t="n">
-        <v>3386.25740113648</v>
+        <v>2804.421186324977</v>
       </c>
       <c r="W11" t="n">
-        <v>3058.695079450736</v>
+        <v>2476.858864639234</v>
       </c>
       <c r="X11" t="n">
-        <v>2710.435654774026</v>
+        <v>2128.599439962524</v>
       </c>
       <c r="Y11" t="n">
-        <v>2345.502656382585</v>
+        <v>1763.666441571082</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I12" t="n">
-        <v>73.20601563880589</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J12" t="n">
-        <v>73.20601563880589</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K12" t="n">
-        <v>352.1865746402262</v>
+        <v>182.1357483745623</v>
       </c>
       <c r="L12" t="n">
-        <v>852.6387527706011</v>
+        <v>682.5879265049371</v>
       </c>
       <c r="M12" t="n">
-        <v>1488.622061484773</v>
+        <v>1318.571235219109</v>
       </c>
       <c r="N12" t="n">
-        <v>2157.144969340669</v>
+        <v>1987.094143075005</v>
       </c>
       <c r="O12" t="n">
-        <v>2405.898383424631</v>
+        <v>2532.246318960767</v>
       </c>
       <c r="P12" t="n">
-        <v>2588.541861037982</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q12" t="n">
         <v>2657.936419551312</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>297.8848191910291</v>
+        <v>195.9127756368288</v>
       </c>
       <c r="C13" t="n">
-        <v>297.8848191910291</v>
+        <v>195.9127756368288</v>
       </c>
       <c r="D13" t="n">
-        <v>172.9745133630635</v>
+        <v>195.9127756368288</v>
       </c>
       <c r="E13" t="n">
-        <v>172.9745133630635</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="F13" t="n">
-        <v>172.9745133630635</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="G13" t="n">
-        <v>172.9745133630635</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="H13" t="n">
-        <v>172.9745133630635</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I13" t="n">
-        <v>73.20601563880589</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J13" t="n">
-        <v>79.32466191965314</v>
+        <v>79.32466191965321</v>
       </c>
       <c r="K13" t="n">
-        <v>203.3235852420087</v>
+        <v>203.3235852420089</v>
       </c>
       <c r="L13" t="n">
-        <v>410.6171321895914</v>
+        <v>410.6171321895918</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475065</v>
+        <v>638.225292047507</v>
       </c>
       <c r="N13" t="n">
-        <v>866.4434782183687</v>
+        <v>866.4434782183693</v>
       </c>
       <c r="O13" t="n">
-        <v>1063.109528897734</v>
+        <v>1063.109528897735</v>
       </c>
       <c r="P13" t="n">
-        <v>1211.436193392007</v>
+        <v>1211.436193392008</v>
       </c>
       <c r="Q13" t="n">
-        <v>1238.295262094752</v>
+        <v>1238.295262094753</v>
       </c>
       <c r="R13" t="n">
-        <v>1238.295262094752</v>
+        <v>1132.331139551521</v>
       </c>
       <c r="S13" t="n">
-        <v>1148.240456278073</v>
+        <v>1132.331139551521</v>
       </c>
       <c r="T13" t="n">
-        <v>947.7517879629007</v>
+        <v>1087.707076035637</v>
       </c>
       <c r="U13" t="n">
-        <v>683.8051050584156</v>
+        <v>823.7603931311523</v>
       </c>
       <c r="V13" t="n">
-        <v>454.3269504368988</v>
+        <v>594.2822385096358</v>
       </c>
       <c r="W13" t="n">
-        <v>454.3269504368988</v>
+        <v>594.2822385096358</v>
       </c>
       <c r="X13" t="n">
-        <v>454.3269504368988</v>
+        <v>391.4990211959887</v>
       </c>
       <c r="Y13" t="n">
-        <v>454.3269504368988</v>
+        <v>195.9127756368288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1708.129488850531</v>
+        <v>1640.352966546791</v>
       </c>
       <c r="C14" t="n">
-        <v>1364.373305494489</v>
+        <v>1640.352966546791</v>
       </c>
       <c r="D14" t="n">
-        <v>1031.313940472109</v>
+        <v>1307.293601524411</v>
       </c>
       <c r="E14" t="n">
-        <v>670.7320214582346</v>
+        <v>946.7116825105365</v>
       </c>
       <c r="F14" t="n">
-        <v>462.3847373366219</v>
+        <v>560.9321113052993</v>
       </c>
       <c r="G14" t="n">
-        <v>462.3847373366219</v>
+        <v>169.0163287484527</v>
       </c>
       <c r="H14" t="n">
-        <v>169.0163287484528</v>
+        <v>169.0163287484527</v>
       </c>
       <c r="I14" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J14" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069159</v>
       </c>
       <c r="K14" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223497</v>
       </c>
       <c r="L14" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092234</v>
       </c>
       <c r="M14" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N14" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O14" t="n">
         <v>2994.282791219484</v>
@@ -5297,13 +5297,13 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q14" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R14" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S14" t="n">
-        <v>3528.509683390925</v>
+        <v>3528.509683390924</v>
       </c>
       <c r="T14" t="n">
         <v>3338.765856504868</v>
@@ -5312,16 +5312,16 @@
         <v>3110.277740084178</v>
       </c>
       <c r="V14" t="n">
-        <v>3110.277740084178</v>
+        <v>2804.421186324977</v>
       </c>
       <c r="W14" t="n">
-        <v>2782.715418398434</v>
+        <v>2476.858864639234</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.455993721724</v>
+        <v>2128.599439962524</v>
       </c>
       <c r="Y14" t="n">
-        <v>2069.522995330282</v>
+        <v>2001.746473026542</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I15" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J15" t="n">
-        <v>73.20601563880588</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K15" t="n">
-        <v>198.5635756966433</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L15" t="n">
-        <v>699.0157538270181</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M15" t="n">
-        <v>1334.999062541191</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N15" t="n">
-        <v>2003.521970397087</v>
+        <v>2321.643591960503</v>
       </c>
       <c r="O15" t="n">
-        <v>2405.898383424631</v>
+        <v>2570.397006044465</v>
       </c>
       <c r="P15" t="n">
         <v>2588.541861037982</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>339.3286882768834</v>
+        <v>216.9358649823425</v>
       </c>
       <c r="C16" t="n">
-        <v>339.3286882768834</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="D16" t="n">
-        <v>339.3286882768834</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="E16" t="n">
-        <v>216.6219282788604</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="F16" t="n">
-        <v>216.6219282788604</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="G16" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="H16" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I16" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J16" t="n">
-        <v>79.32466191965307</v>
+        <v>79.32466191965324</v>
       </c>
       <c r="K16" t="n">
-        <v>203.3235852420086</v>
+        <v>203.3235852420089</v>
       </c>
       <c r="L16" t="n">
-        <v>410.6171321895914</v>
+        <v>410.6171321895918</v>
       </c>
       <c r="M16" t="n">
-        <v>638.2252920475065</v>
+        <v>638.2252920475071</v>
       </c>
       <c r="N16" t="n">
-        <v>866.4434782183687</v>
+        <v>866.4434782183695</v>
       </c>
       <c r="O16" t="n">
-        <v>1063.109528897734</v>
+        <v>1063.109528897735</v>
       </c>
       <c r="P16" t="n">
-        <v>1211.436193392007</v>
+        <v>1211.436193392008</v>
       </c>
       <c r="Q16" t="n">
-        <v>1238.295262094752</v>
+        <v>1238.295262094753</v>
       </c>
       <c r="R16" t="n">
-        <v>1132.33113955152</v>
+        <v>1238.295262094753</v>
       </c>
       <c r="S16" t="n">
-        <v>962.5007197408855</v>
+        <v>1055.792909673602</v>
       </c>
       <c r="T16" t="n">
-        <v>962.5007197408855</v>
+        <v>1055.792909673602</v>
       </c>
       <c r="U16" t="n">
-        <v>698.5540368364004</v>
+        <v>867.066987302319</v>
       </c>
       <c r="V16" t="n">
-        <v>698.5540368364004</v>
+        <v>637.5888326808024</v>
       </c>
       <c r="W16" t="n">
-        <v>698.5540368364004</v>
+        <v>373.377996228212</v>
       </c>
       <c r="X16" t="n">
-        <v>495.7708195227531</v>
+        <v>373.377996228212</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.7708195227531</v>
+        <v>373.377996228212</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C17" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D17" t="n">
         <v>1308.927135646023</v>
@@ -5501,34 +5501,34 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F17" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G17" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H17" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I17" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J17" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K17" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L17" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M17" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N17" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O17" t="n">
-        <v>2994.282791219485</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P17" t="n">
         <v>3418.758763931393</v>
@@ -5537,13 +5537,13 @@
         <v>3660.300781940294</v>
       </c>
       <c r="R17" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S17" t="n">
         <v>3586.856658284236</v>
       </c>
       <c r="T17" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U17" t="n">
         <v>3285.318664764112</v>
@@ -5552,7 +5552,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W17" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X17" t="n">
         <v>2478.681289322392</v>
@@ -5589,28 +5589,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I18" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J18" t="n">
-        <v>159.3332706929085</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K18" t="n">
-        <v>159.3332706929085</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L18" t="n">
-        <v>159.3332706929085</v>
+        <v>711.7506643780357</v>
       </c>
       <c r="M18" t="n">
-        <v>795.3165794070809</v>
+        <v>1347.733973092208</v>
       </c>
       <c r="N18" t="n">
-        <v>1463.839487262977</v>
+        <v>1692.254628729826</v>
       </c>
       <c r="O18" t="n">
-        <v>2008.991663148739</v>
+        <v>2237.406804615588</v>
       </c>
       <c r="P18" t="n">
-        <v>2429.521278084463</v>
+        <v>2657.936419551312</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.936419551312</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>508.7558483631242</v>
+        <v>419.5025855012079</v>
       </c>
       <c r="C19" t="n">
-        <v>423.3729739128989</v>
+        <v>334.1197110509826</v>
       </c>
       <c r="D19" t="n">
-        <v>356.8096429782448</v>
+        <v>334.1197110509826</v>
       </c>
       <c r="E19" t="n">
-        <v>292.4498578735332</v>
+        <v>333.8713807044794</v>
       </c>
       <c r="F19" t="n">
-        <v>229.1132188533045</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="G19" t="n">
-        <v>144.0442811065614</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H19" t="n">
-        <v>73.20601563880588</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I19" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K19" t="n">
         <v>317.6953254278778</v>
@@ -5689,10 +5689,10 @@
         <v>1406.224749455342</v>
       </c>
       <c r="P19" t="n">
-        <v>1611.73728404255</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q19" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R19" t="n">
         <v>1648.165075188308</v>
@@ -5710,13 +5710,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W19" t="n">
-        <v>799.27325493995</v>
+        <v>799.2732549399498</v>
       </c>
       <c r="X19" t="n">
-        <v>654.8370125196143</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y19" t="n">
-        <v>517.5977418537656</v>
+        <v>517.597741853766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C20" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D20" t="n">
         <v>1308.927135646023</v>
@@ -5738,49 +5738,49 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F20" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135345</v>
       </c>
       <c r="G20" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H20" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I20" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J20" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069162</v>
       </c>
       <c r="K20" t="n">
-        <v>658.1763815223503</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L20" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M20" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N20" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O20" t="n">
-        <v>2994.282791219485</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P20" t="n">
         <v>3418.758763931393</v>
       </c>
       <c r="Q20" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R20" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S20" t="n">
         <v>3586.856658284236</v>
       </c>
       <c r="T20" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U20" t="n">
         <v>3285.318664764112</v>
@@ -5789,7 +5789,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W20" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X20" t="n">
         <v>2478.681289322392</v>
@@ -5826,28 +5826,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I21" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J21" t="n">
-        <v>159.3332706929085</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K21" t="n">
-        <v>159.3332706929085</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L21" t="n">
-        <v>159.3332706929085</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M21" t="n">
-        <v>795.3165794070809</v>
+        <v>1374.866777296324</v>
       </c>
       <c r="N21" t="n">
-        <v>1463.839487262977</v>
+        <v>2043.38968515222</v>
       </c>
       <c r="O21" t="n">
-        <v>2008.991663148739</v>
+        <v>2588.541861037982</v>
       </c>
       <c r="P21" t="n">
-        <v>2429.521278084463</v>
+        <v>2588.541861037982</v>
       </c>
       <c r="Q21" t="n">
         <v>2657.936419551312</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>419.502585501207</v>
+        <v>550.1773711940705</v>
       </c>
       <c r="C22" t="n">
-        <v>334.1197110509816</v>
+        <v>464.7944967438451</v>
       </c>
       <c r="D22" t="n">
-        <v>270.5347416842506</v>
+        <v>398.2311658091909</v>
       </c>
       <c r="E22" t="n">
-        <v>270.5347416842506</v>
+        <v>333.8713807044794</v>
       </c>
       <c r="F22" t="n">
         <v>270.5347416842506</v>
@@ -5902,25 +5902,25 @@
         <v>185.4658039375075</v>
       </c>
       <c r="H22" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I22" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K22" t="n">
         <v>317.6953254278778</v>
       </c>
       <c r="L22" t="n">
-        <v>582.174742468395</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M22" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N22" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O22" t="n">
         <v>1406.224749455342</v>
@@ -5929,7 +5929,7 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q22" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R22" t="n">
         <v>1648.165075188308</v>
@@ -5947,13 +5947,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W22" t="n">
-        <v>799.2732549399498</v>
+        <v>799.27325493995</v>
       </c>
       <c r="X22" t="n">
-        <v>654.8370125196139</v>
+        <v>654.8370125196142</v>
       </c>
       <c r="Y22" t="n">
-        <v>517.5977418537651</v>
+        <v>648.2725275466286</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C23" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D23" t="n">
         <v>1308.927135646023</v>
@@ -5975,25 +5975,25 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F23" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G23" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499989</v>
       </c>
       <c r="H23" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I23" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J23" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069159</v>
       </c>
       <c r="K23" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223497</v>
       </c>
       <c r="L23" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092234</v>
       </c>
       <c r="M23" t="n">
         <v>1831.488208231171</v>
@@ -6008,16 +6008,16 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q23" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R23" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S23" t="n">
         <v>3586.856658284236</v>
       </c>
       <c r="T23" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U23" t="n">
         <v>3285.318664764112</v>
@@ -6026,7 +6026,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W23" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X23" t="n">
         <v>2478.681289322392</v>
@@ -6063,28 +6063,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I24" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J24" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K24" t="n">
-        <v>73.20601563880588</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L24" t="n">
-        <v>159.3332706929085</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M24" t="n">
-        <v>795.3165794070809</v>
+        <v>1536.162504081863</v>
       </c>
       <c r="N24" t="n">
-        <v>1463.839487262977</v>
+        <v>2204.685411937759</v>
       </c>
       <c r="O24" t="n">
-        <v>2008.991663148739</v>
+        <v>2453.438826021721</v>
       </c>
       <c r="P24" t="n">
-        <v>2429.521278084463</v>
+        <v>2588.541861037982</v>
       </c>
       <c r="Q24" t="n">
         <v>2657.936419551312</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>550.1773711940707</v>
+        <v>550.1773711940704</v>
       </c>
       <c r="C25" t="n">
-        <v>464.7944967438453</v>
+        <v>464.794496743845</v>
       </c>
       <c r="D25" t="n">
-        <v>398.2311658091912</v>
+        <v>398.2311658091909</v>
       </c>
       <c r="E25" t="n">
-        <v>333.8713807044796</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="F25" t="n">
-        <v>270.5347416842508</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="G25" t="n">
-        <v>185.4658039375076</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H25" t="n">
         <v>114.627538469752</v>
       </c>
       <c r="I25" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K25" t="n">
         <v>317.6953254278778</v>
       </c>
       <c r="L25" t="n">
-        <v>582.174742468395</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192448</v>
       </c>
       <c r="N25" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O25" t="n">
         <v>1406.224749455342</v>
@@ -6175,22 +6175,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T25" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U25" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227435</v>
       </c>
       <c r="V25" t="n">
-        <v>1005.137116499229</v>
+        <v>1135.811902192092</v>
       </c>
       <c r="W25" t="n">
-        <v>831.852884280255</v>
+        <v>929.9480406328128</v>
       </c>
       <c r="X25" t="n">
-        <v>687.4166418599192</v>
+        <v>785.5117982124771</v>
       </c>
       <c r="Y25" t="n">
-        <v>550.1773711940707</v>
+        <v>648.2725275466285</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C26" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D26" t="n">
         <v>1308.927135646023</v>
@@ -6212,13 +6212,13 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F26" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135342</v>
       </c>
       <c r="G26" t="n">
-        <v>345.6907875499987</v>
+        <v>345.690787549999</v>
       </c>
       <c r="H26" t="n">
-        <v>110.6693538551411</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I26" t="n">
         <v>73.20601563880588</v>
@@ -6257,19 +6257,19 @@
         <v>3455.459806291492</v>
       </c>
       <c r="U26" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V26" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898224</v>
       </c>
       <c r="W26" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X26" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322393</v>
       </c>
       <c r="Y26" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J27" t="n">
-        <v>73.20601563880588</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K27" t="n">
-        <v>73.20601563880588</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L27" t="n">
-        <v>159.3332706929085</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M27" t="n">
-        <v>795.3165794070809</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N27" t="n">
-        <v>1463.839487262977</v>
+        <v>2321.643591960503</v>
       </c>
       <c r="O27" t="n">
-        <v>2008.991663148739</v>
+        <v>2570.397006044465</v>
       </c>
       <c r="P27" t="n">
-        <v>2429.521278084463</v>
+        <v>2588.541861037982</v>
       </c>
       <c r="Q27" t="n">
         <v>2657.936419551312</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550.1773711940706</v>
+        <v>508.7558483631246</v>
       </c>
       <c r="C28" t="n">
-        <v>464.7944967438452</v>
+        <v>423.3729739128993</v>
       </c>
       <c r="D28" t="n">
-        <v>398.231165809191</v>
+        <v>356.8096429782451</v>
       </c>
       <c r="E28" t="n">
-        <v>333.8713807044794</v>
+        <v>292.4498578735335</v>
       </c>
       <c r="F28" t="n">
-        <v>270.5347416842506</v>
+        <v>229.1132188533047</v>
       </c>
       <c r="G28" t="n">
-        <v>185.4658039375075</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H28" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I28" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125878</v>
       </c>
       <c r="K28" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L28" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M28" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N28" t="n">
         <v>1152.372828683041</v>
@@ -6406,28 +6406,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R28" t="n">
-        <v>1695.782222838228</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S28" t="n">
-        <v>1571.626845310388</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T28" t="n">
-        <v>1429.485151888528</v>
+        <v>1471.121267100525</v>
       </c>
       <c r="U28" t="n">
-        <v>1223.885443877354</v>
+        <v>1265.521559089352</v>
       </c>
       <c r="V28" t="n">
-        <v>1052.754264149149</v>
+        <v>1094.390379361146</v>
       </c>
       <c r="W28" t="n">
-        <v>846.8904025898701</v>
+        <v>888.5265178018674</v>
       </c>
       <c r="X28" t="n">
-        <v>785.5117982124773</v>
+        <v>744.0902753815315</v>
       </c>
       <c r="Y28" t="n">
-        <v>648.2725275466288</v>
+        <v>606.8510047156828</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1308.927135646023</v>
       </c>
       <c r="E29" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F29" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135348</v>
       </c>
       <c r="G29" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499996</v>
       </c>
       <c r="H29" t="n">
         <v>110.6693538551414</v>
@@ -6461,22 +6461,22 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J29" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K29" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L29" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M29" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N29" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O29" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219485</v>
       </c>
       <c r="P29" t="n">
         <v>3418.758763931393</v>
@@ -6494,7 +6494,7 @@
         <v>3455.459806291492</v>
       </c>
       <c r="U29" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V29" t="n">
         <v>3037.809085898223</v>
@@ -6540,25 +6540,25 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J30" t="n">
-        <v>73.20601563880588</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K30" t="n">
-        <v>198.5635756966433</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L30" t="n">
-        <v>428.5266815649924</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M30" t="n">
-        <v>1064.509990279165</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N30" t="n">
-        <v>1733.032898135061</v>
+        <v>2321.643591960503</v>
       </c>
       <c r="O30" t="n">
-        <v>2008.991663148739</v>
+        <v>2570.397006044465</v>
       </c>
       <c r="P30" t="n">
-        <v>2429.521278084463</v>
+        <v>2657.936419551312</v>
       </c>
       <c r="Q30" t="n">
         <v>2657.936419551312</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>550.1773711940706</v>
+        <v>442.1925174284703</v>
       </c>
       <c r="C31" t="n">
-        <v>464.7944967438452</v>
+        <v>356.8096429782449</v>
       </c>
       <c r="D31" t="n">
-        <v>398.231165809191</v>
+        <v>356.8096429782449</v>
       </c>
       <c r="E31" t="n">
-        <v>333.8713807044794</v>
+        <v>292.4498578735333</v>
       </c>
       <c r="F31" t="n">
-        <v>270.5347416842506</v>
+        <v>229.1132188533045</v>
       </c>
       <c r="G31" t="n">
-        <v>185.4658039375075</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H31" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I31" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K31" t="n">
         <v>317.6953254278777</v>
@@ -6646,25 +6646,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.009697660468</v>
+        <v>1546.699629587732</v>
       </c>
       <c r="T31" t="n">
-        <v>1381.868004238607</v>
+        <v>1404.557936165871</v>
       </c>
       <c r="U31" t="n">
-        <v>1176.268296227434</v>
+        <v>1198.958228154697</v>
       </c>
       <c r="V31" t="n">
-        <v>1005.137116499229</v>
+        <v>1027.827048426492</v>
       </c>
       <c r="W31" t="n">
-        <v>799.2732549399495</v>
+        <v>821.9631868672129</v>
       </c>
       <c r="X31" t="n">
-        <v>785.5117982124771</v>
+        <v>677.5269444468771</v>
       </c>
       <c r="Y31" t="n">
-        <v>648.2725275466288</v>
+        <v>540.2876737810285</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C32" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E32" t="n">
         <v>1006.69219152546</v>
@@ -6698,22 +6698,22 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J32" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K32" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L32" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M32" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N32" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O32" t="n">
-        <v>2994.282791219485</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P32" t="n">
         <v>3418.758763931393</v>
@@ -6777,25 +6777,25 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J33" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K33" t="n">
-        <v>315.5217557193877</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L33" t="n">
-        <v>815.9739338497625</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M33" t="n">
-        <v>1347.733973092208</v>
+        <v>1536.162504081863</v>
       </c>
       <c r="N33" t="n">
-        <v>1692.254628729826</v>
+        <v>2204.685411937759</v>
       </c>
       <c r="O33" t="n">
-        <v>2237.406804615588</v>
+        <v>2453.438826021721</v>
       </c>
       <c r="P33" t="n">
-        <v>2657.936419551312</v>
+        <v>2453.438826021721</v>
       </c>
       <c r="Q33" t="n">
         <v>2657.936419551312</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>419.502585501207</v>
+        <v>419.5025855012066</v>
       </c>
       <c r="C34" t="n">
-        <v>419.502585501207</v>
+        <v>356.809642978245</v>
       </c>
       <c r="D34" t="n">
-        <v>352.9392545665528</v>
+        <v>356.809642978245</v>
       </c>
       <c r="E34" t="n">
-        <v>333.8713807044801</v>
+        <v>292.4498578735334</v>
       </c>
       <c r="F34" t="n">
-        <v>270.5347416842513</v>
+        <v>229.1132188533046</v>
       </c>
       <c r="G34" t="n">
-        <v>185.4658039375082</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H34" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I34" t="n">
         <v>73.20601563880588</v>
@@ -6862,16 +6862,16 @@
         <v>317.6953254278777</v>
       </c>
       <c r="L34" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M34" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N34" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O34" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P34" t="n">
         <v>1611.737284042549</v>
@@ -6892,16 +6892,16 @@
         <v>1176.268296227434</v>
       </c>
       <c r="V34" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W34" t="n">
-        <v>799.2732549399495</v>
+        <v>799.2732549399492</v>
       </c>
       <c r="X34" t="n">
-        <v>654.8370125196137</v>
+        <v>654.8370125196134</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.5977418537652</v>
+        <v>517.5977418537648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F35" t="n">
-        <v>679.259595213534</v>
+        <v>679.2595952135345</v>
       </c>
       <c r="G35" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6693538551411</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I35" t="n">
         <v>73.20601563880588</v>
@@ -6938,19 +6938,19 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K35" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L35" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M35" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N35" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O35" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219485</v>
       </c>
       <c r="P35" t="n">
         <v>3418.758763931393</v>
@@ -6965,7 +6965,7 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T35" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U35" t="n">
         <v>3285.318664764112</v>
@@ -7017,22 +7017,22 @@
         <v>73.20601563880588</v>
       </c>
       <c r="K36" t="n">
-        <v>73.20601563880588</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L36" t="n">
-        <v>303.169121507155</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1524302213274</v>
+        <v>1536.162504081863</v>
       </c>
       <c r="N36" t="n">
-        <v>1607.675338077223</v>
+        <v>2204.685411937759</v>
       </c>
       <c r="O36" t="n">
-        <v>2008.991663148739</v>
+        <v>2453.438826021721</v>
       </c>
       <c r="P36" t="n">
-        <v>2429.521278084463</v>
+        <v>2636.082303635072</v>
       </c>
       <c r="Q36" t="n">
         <v>2657.936419551312</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>517.5977418537651</v>
+        <v>550.1773711940712</v>
       </c>
       <c r="C37" t="n">
-        <v>432.2148674035398</v>
+        <v>464.7944967438457</v>
       </c>
       <c r="D37" t="n">
-        <v>365.6515364688856</v>
+        <v>398.2311658091913</v>
       </c>
       <c r="E37" t="n">
-        <v>333.871380704479</v>
+        <v>333.8713807044797</v>
       </c>
       <c r="F37" t="n">
-        <v>270.5347416842507</v>
+        <v>270.5347416842509</v>
       </c>
       <c r="G37" t="n">
         <v>185.4658039375076</v>
@@ -7102,13 +7102,13 @@
         <v>582.1747424683949</v>
       </c>
       <c r="M37" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N37" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O37" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P37" t="n">
         <v>1611.737284042549</v>
@@ -7117,28 +7117,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R37" t="n">
-        <v>1648.165075188308</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="S37" t="n">
-        <v>1524.009697660468</v>
+        <v>1571.626845310388</v>
       </c>
       <c r="T37" t="n">
-        <v>1381.868004238607</v>
+        <v>1429.485151888528</v>
       </c>
       <c r="U37" t="n">
-        <v>1176.268296227434</v>
+        <v>1306.943081920298</v>
       </c>
       <c r="V37" t="n">
-        <v>1005.137116499229</v>
+        <v>1135.811902192093</v>
       </c>
       <c r="W37" t="n">
-        <v>799.2732549399495</v>
+        <v>929.9480406328137</v>
       </c>
       <c r="X37" t="n">
-        <v>654.8370125196137</v>
+        <v>785.511798212478</v>
       </c>
       <c r="Y37" t="n">
-        <v>517.5977418537651</v>
+        <v>648.2725275466294</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1869.048734237823</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C38" t="n">
         <v>1583.639525775092</v>
@@ -7157,16 +7157,16 @@
         <v>1308.927135646023</v>
       </c>
       <c r="E38" t="n">
-        <v>1006.692191525461</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F38" t="n">
-        <v>679.2595952135346</v>
+        <v>679.259595213534</v>
       </c>
       <c r="G38" t="n">
-        <v>345.6907875499993</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H38" t="n">
-        <v>110.6693538551417</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I38" t="n">
         <v>73.20601563880588</v>
@@ -7199,25 +7199,25 @@
         <v>3660.300781940294</v>
       </c>
       <c r="S38" t="n">
-        <v>3586.856658284237</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T38" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U38" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V38" t="n">
-        <v>3037.809085898224</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W38" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X38" t="n">
-        <v>2478.681289322393</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y38" t="n">
-        <v>2172.095265824263</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J39" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K39" t="n">
-        <v>315.5217557193877</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L39" t="n">
-        <v>684.1471739615572</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M39" t="n">
-        <v>1320.13048267573</v>
+        <v>1536.162504081863</v>
       </c>
       <c r="N39" t="n">
-        <v>1988.653390531626</v>
+        <v>2204.685411937759</v>
       </c>
       <c r="O39" t="n">
-        <v>2237.406804615588</v>
+        <v>2246.877800471112</v>
       </c>
       <c r="P39" t="n">
-        <v>2657.936419551312</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q39" t="n">
         <v>2657.936419551312</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>550.1773711940704</v>
+        <v>422.4809470691303</v>
       </c>
       <c r="C40" t="n">
-        <v>464.794496743845</v>
+        <v>337.0980726189049</v>
       </c>
       <c r="D40" t="n">
-        <v>398.2311658091908</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="E40" t="n">
-        <v>333.8713807044792</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="F40" t="n">
-        <v>270.5347416842504</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="G40" t="n">
-        <v>185.4658039375073</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H40" t="n">
-        <v>114.6275384697517</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I40" t="n">
         <v>73.20601563880588</v>
@@ -7339,13 +7339,13 @@
         <v>582.1747424683949</v>
       </c>
       <c r="M40" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N40" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O40" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P40" t="n">
         <v>1611.737284042549</v>
@@ -7360,22 +7360,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T40" t="n">
-        <v>1512.542789931471</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U40" t="n">
-        <v>1306.943081920298</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V40" t="n">
-        <v>1135.811902192092</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W40" t="n">
-        <v>929.9480406328132</v>
+        <v>799.2732549399494</v>
       </c>
       <c r="X40" t="n">
-        <v>785.5117982124774</v>
+        <v>654.8370125196136</v>
       </c>
       <c r="Y40" t="n">
-        <v>648.2725275466286</v>
+        <v>517.597741853765</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1869.048734237823</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C41" t="n">
         <v>1583.639525775092</v>
@@ -7394,25 +7394,25 @@
         <v>1308.927135646023</v>
       </c>
       <c r="E41" t="n">
-        <v>1006.692191525461</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F41" t="n">
-        <v>679.2595952135345</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6693538551415</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I41" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J41" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K41" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L41" t="n">
         <v>1205.679240092235</v>
@@ -7439,22 +7439,22 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T41" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U41" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V41" t="n">
-        <v>3037.809085898224</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W41" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X41" t="n">
-        <v>2478.681289322393</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y41" t="n">
-        <v>2172.095265824263</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J42" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K42" t="n">
-        <v>315.5217557193877</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L42" t="n">
-        <v>815.9739338497625</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M42" t="n">
-        <v>1451.957242563935</v>
+        <v>1536.162504081863</v>
       </c>
       <c r="N42" t="n">
-        <v>1988.653390531626</v>
+        <v>2204.685411937759</v>
       </c>
       <c r="O42" t="n">
-        <v>2237.406804615588</v>
+        <v>2453.438826021721</v>
       </c>
       <c r="P42" t="n">
-        <v>2657.936419551312</v>
+        <v>2588.541861037982</v>
       </c>
       <c r="Q42" t="n">
         <v>2657.936419551312</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>419.5025855012054</v>
+        <v>550.1773711940707</v>
       </c>
       <c r="C43" t="n">
-        <v>334.11971105098</v>
+        <v>464.7944967438453</v>
       </c>
       <c r="D43" t="n">
-        <v>267.5563801163258</v>
+        <v>398.2311658091912</v>
       </c>
       <c r="E43" t="n">
-        <v>203.1965950116142</v>
+        <v>333.8713807044796</v>
       </c>
       <c r="F43" t="n">
-        <v>139.8599559913853</v>
+        <v>270.5347416842508</v>
       </c>
       <c r="G43" t="n">
-        <v>114.6275384697521</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H43" t="n">
-        <v>114.6275384697521</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I43" t="n">
         <v>73.20601563880588</v>
@@ -7570,19 +7570,19 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K43" t="n">
-        <v>317.6953254278775</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L43" t="n">
-        <v>582.1747424683947</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M43" t="n">
-        <v>866.9687724192443</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N43" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O43" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P43" t="n">
         <v>1611.737284042549</v>
@@ -7600,19 +7600,19 @@
         <v>1381.868004238607</v>
       </c>
       <c r="U43" t="n">
-        <v>1176.268296227433</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V43" t="n">
         <v>1005.137116499228</v>
       </c>
       <c r="W43" t="n">
-        <v>799.2732549399484</v>
+        <v>929.9480406328132</v>
       </c>
       <c r="X43" t="n">
-        <v>654.8370125196126</v>
+        <v>785.5117982124774</v>
       </c>
       <c r="Y43" t="n">
-        <v>517.5977418537636</v>
+        <v>648.2725275466289</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C44" t="n">
         <v>1583.639525775091</v>
@@ -7634,13 +7634,13 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F44" t="n">
-        <v>679.2595952135345</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6693538551415</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I44" t="n">
         <v>73.20601563880588</v>
@@ -7676,10 +7676,10 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T44" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U44" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V44" t="n">
         <v>3037.809085898223</v>
@@ -7725,22 +7725,22 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J45" t="n">
-        <v>73.20601563880588</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K45" t="n">
-        <v>198.5635756966433</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L45" t="n">
-        <v>428.5266815649924</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M45" t="n">
-        <v>1064.509990279165</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N45" t="n">
-        <v>1733.032898135061</v>
+        <v>2321.643591960503</v>
       </c>
       <c r="O45" t="n">
-        <v>2278.185074020823</v>
+        <v>2588.541861037982</v>
       </c>
       <c r="P45" t="n">
         <v>2588.541861037982</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>485.8175860893595</v>
+        <v>550.1773711940707</v>
       </c>
       <c r="C46" t="n">
-        <v>400.434711639134</v>
+        <v>464.7944967438453</v>
       </c>
       <c r="D46" t="n">
-        <v>333.8713807044797</v>
+        <v>398.2311658091911</v>
       </c>
       <c r="E46" t="n">
-        <v>333.8713807044797</v>
+        <v>333.8713807044795</v>
       </c>
       <c r="F46" t="n">
-        <v>270.5347416842509</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="G46" t="n">
-        <v>185.4658039375077</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H46" t="n">
-        <v>114.6275384697521</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I46" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J46" t="n">
-        <v>136.5105320125878</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K46" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L46" t="n">
-        <v>582.174742468395</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M46" t="n">
-        <v>866.9687724192448</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N46" t="n">
         <v>1152.372828683041</v>
@@ -7837,19 +7837,19 @@
         <v>1381.868004238607</v>
       </c>
       <c r="U46" t="n">
-        <v>1176.268296227433</v>
+        <v>1306.943081920298</v>
       </c>
       <c r="V46" t="n">
-        <v>1005.137116499228</v>
+        <v>1135.811902192093</v>
       </c>
       <c r="W46" t="n">
-        <v>799.2732549399486</v>
+        <v>929.9480406328137</v>
       </c>
       <c r="X46" t="n">
-        <v>654.8370125196127</v>
+        <v>785.5117982124779</v>
       </c>
       <c r="Y46" t="n">
-        <v>583.9127424419177</v>
+        <v>648.2725275466289</v>
       </c>
     </row>
   </sheetData>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>44.67607654515076</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>152.3025437714182</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>225.5516071072506</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>270.4421195519681</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>225.5516071072506</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>152.3025437714182</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>222.3980574212458</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>162.0566386478797</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>185.2148187205582</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>270.4421195519681</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>148.72718106224</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>329.7287713721564</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>387.996624731278</v>
       </c>
       <c r="H11" t="n">
-        <v>290.4347245022873</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>47.01662918529474</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>226.2032352564837</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>302.7979882216085</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>154.8777099334108</v>
       </c>
       <c r="C13" t="n">
-        <v>142.2925508501015</v>
+        <v>142.2925508501013</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>123.6612027696858</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4796923980428</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>120.4667777744049</v>
+        <v>120.4667777744047</v>
       </c>
       <c r="G13" t="n">
-        <v>141.981753513654</v>
+        <v>141.9817535136539</v>
       </c>
       <c r="H13" t="n">
-        <v>127.8933879574564</v>
+        <v>127.8933879574563</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77081274701487</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.9044813177992</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>91.52307113842747</v>
+        <v>180.6773288969399</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>154.3059587512949</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>261.5687280880646</v>
+        <v>261.5687280880645</v>
       </c>
       <c r="X13" t="n">
-        <v>200.7553851405108</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.6303831035684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>340.318621522481</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>175.6579642127892</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>387.9966247312782</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>290.4347245022872</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>302.7979882216085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>235.6992311409051</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>142.2925508501015</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.661202769686</v>
+        <v>123.6612027696858</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>121.4796923980426</v>
       </c>
       <c r="F16" t="n">
-        <v>120.4667777744049</v>
+        <v>120.4667777744047</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>141.9817535136539</v>
       </c>
       <c r="H16" t="n">
-        <v>127.8933879574564</v>
+        <v>127.8933879574563</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77081274701501</v>
+        <v>98.77081274701487</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>104.904481317799</v>
       </c>
       <c r="S16" t="n">
-        <v>12.54521328441163</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>198.4837816320203</v>
+        <v>198.4837816320201</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>74.46855292787038</v>
       </c>
       <c r="V16" t="n">
-        <v>227.1833730753016</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>261.5687280880646</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.7553851405106</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.6303831035684</v>
+        <v>193.6303831035682</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.36073023329753</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.47034021062623</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>41.0073076026366</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.948577952243937</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>63.71618725366444</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>62.70327263002652</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>129.3680378359338</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.11420478903257</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>129.3680378359334</v>
       </c>
       <c r="W25" t="n">
-        <v>32.25383304690241</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.14097617342084</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>88.36073023329845</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.22706166251356</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>22.46303260799098</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>129.3680378359347</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>84.52904570572312</v>
+        <v>22.46303260799111</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E34" t="n">
-        <v>44.8389921302125</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11420478903258</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>32.25383304690195</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.22706166251461</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2.948577952244193</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>129.3680378359355</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>59.23815502285879</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>70.1298828130781</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>129.3680378359353</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>63.71618725366451</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>129.3680378359357</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.65185058227283</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>733814.1415424055</v>
+        <v>733814.1415424056</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733814.1415424052</v>
+        <v>733814.1415424056</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>519039.2708470664</v>
+        <v>519039.2708470677</v>
       </c>
       <c r="F2" t="n">
-        <v>519039.2708470662</v>
+        <v>519039.2708470676</v>
       </c>
       <c r="G2" t="n">
-        <v>593004.2792932604</v>
+        <v>593004.2792932605</v>
       </c>
       <c r="H2" t="n">
         <v>593004.2792932607</v>
       </c>
       <c r="I2" t="n">
-        <v>593004.2792932604</v>
+        <v>593004.2792932607</v>
       </c>
       <c r="J2" t="n">
-        <v>593004.2792932605</v>
+        <v>593004.2792932607</v>
       </c>
       <c r="K2" t="n">
-        <v>593004.2792932605</v>
+        <v>593004.2792932607</v>
       </c>
       <c r="L2" t="n">
         <v>593004.2792932608</v>
       </c>
       <c r="M2" t="n">
-        <v>593004.2792932605</v>
+        <v>593004.2792932607</v>
       </c>
       <c r="N2" t="n">
-        <v>593004.2792932604</v>
+        <v>593004.2792932608</v>
       </c>
       <c r="O2" t="n">
-        <v>593004.2792932601</v>
+        <v>593004.2792932607</v>
       </c>
       <c r="P2" t="n">
-        <v>593004.2792932603</v>
+        <v>593004.2792932607</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.80411550272</v>
+        <v>46210.80411550259</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83023.35879792733</v>
+        <v>83023.35879792745</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.80411550271</v>
+        <v>46210.80411550259</v>
       </c>
       <c r="M3" t="n">
         <v>167978.6741701941</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19963.41619882106</v>
+        <v>19963.41619882119</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
-        <v>25948.29403794265</v>
+        <v>25948.2940379428</v>
       </c>
       <c r="F4" t="n">
-        <v>25948.29403794265</v>
+        <v>25948.29403794279</v>
       </c>
       <c r="G4" t="n">
-        <v>84320.95715073358</v>
+        <v>84320.95715073356</v>
       </c>
       <c r="H4" t="n">
-        <v>84320.95715073355</v>
+        <v>84320.95715073356</v>
       </c>
       <c r="I4" t="n">
-        <v>84320.95715073355</v>
+        <v>84320.95715073356</v>
       </c>
       <c r="J4" t="n">
-        <v>84320.95715073355</v>
+        <v>84320.95715073351</v>
       </c>
       <c r="K4" t="n">
-        <v>84320.95715073355</v>
+        <v>84320.95715073351</v>
       </c>
       <c r="L4" t="n">
-        <v>84320.95715073351</v>
+        <v>84320.95715073349</v>
       </c>
       <c r="M4" t="n">
         <v>84320.95715073351</v>
@@ -26454,10 +26454,10 @@
         <v>84320.95715073349</v>
       </c>
       <c r="O4" t="n">
-        <v>84320.95715073346</v>
+        <v>84320.95715073351</v>
       </c>
       <c r="P4" t="n">
-        <v>84320.95715073346</v>
+        <v>84320.95715073351</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>70487.9065394793</v>
       </c>
       <c r="F5" t="n">
-        <v>70487.90653947929</v>
+        <v>70487.9065394793</v>
       </c>
       <c r="G5" t="n">
         <v>75344.02665346203</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187079.5227241326</v>
+        <v>187079.5227241325</v>
       </c>
       <c r="C6" t="n">
-        <v>267848.9542556804</v>
+        <v>267848.9542556801</v>
       </c>
       <c r="D6" t="n">
         <v>267848.9542556801</v>
       </c>
       <c r="E6" t="n">
-        <v>-268627.5937197224</v>
+        <v>-268890.407555254</v>
       </c>
       <c r="F6" t="n">
-        <v>422603.0702696443</v>
+        <v>422340.2564341127</v>
       </c>
       <c r="G6" t="n">
-        <v>387128.4913735621</v>
+        <v>387120.7292912921</v>
       </c>
       <c r="H6" t="n">
-        <v>433339.2954890651</v>
+        <v>433331.5334067949</v>
       </c>
       <c r="I6" t="n">
-        <v>433339.2954890648</v>
+        <v>433331.5334067949</v>
       </c>
       <c r="J6" t="n">
-        <v>350315.9366911376</v>
+        <v>350308.1746088675</v>
       </c>
       <c r="K6" t="n">
-        <v>433339.2954890649</v>
+        <v>433331.5334067949</v>
       </c>
       <c r="L6" t="n">
-        <v>387128.4913735625</v>
+        <v>387120.7292912924</v>
       </c>
       <c r="M6" t="n">
-        <v>265360.6213188709</v>
+        <v>265352.8592366009</v>
       </c>
       <c r="N6" t="n">
-        <v>433339.2954890649</v>
+        <v>433331.5334067951</v>
       </c>
       <c r="O6" t="n">
-        <v>413375.8792902436</v>
+        <v>413368.1172079738</v>
       </c>
       <c r="P6" t="n">
-        <v>433339.2954890648</v>
+        <v>433331.5334067949</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="F2" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="G2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H2" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I2" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J2" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K2" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L2" t="n">
         <v>82.71777539290471</v>
@@ -26722,10 +26722,10 @@
         <v>82.71777539290471</v>
       </c>
       <c r="O2" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P2" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634615</v>
+        <v>585.0208306634614</v>
       </c>
       <c r="F3" t="n">
-        <v>585.0208306634615</v>
+        <v>585.0208306634614</v>
       </c>
       <c r="G3" t="n">
         <v>585.0208306634614</v>
@@ -26796,19 +26796,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>915.0751954850737</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="F4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="G4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="H4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="I4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="J4" t="n">
         <v>915.0751954850734</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.7635051443784</v>
+        <v>57.76350514437823</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852648</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437839</v>
+        <v>57.76350514437823</v>
       </c>
       <c r="M2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852632</v>
+        <v>24.95427024852648</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634615</v>
+        <v>585.0208306634614</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>674.0609066074146</v>
+        <v>674.0609066074143</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074146</v>
+        <v>674.0609066074143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.7635051443784</v>
+        <v>57.76350514437823</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852648</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074146</v>
+        <v>674.0609066074143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>301.251446211517</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>140.7697889910758</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27473,10 +27473,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>203.3160864019355</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>36.78129424836629</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>192.6272392768849</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>216.5306486674267</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27682,7 +27682,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27695,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27758,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>204.5750571111013</v>
+        <v>75.61675863939723</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>214.5672278460424</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8333861825618</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27910,7 +27910,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>108.226679839754</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,22 +27929,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,19 +27986,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>215.2557513943619</v>
+        <v>215.77819477588</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="C11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="D11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="E11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="F11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="G11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="H11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="I11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.135189281195238</v>
+        <v>2.135189281195267</v>
       </c>
       <c r="S11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="T11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="U11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="V11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="W11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="X11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="C13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="D13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="F13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="G13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="H13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="I13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="J13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="K13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="L13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="M13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="N13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="O13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="P13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="R13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="S13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="T13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="U13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="V13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="W13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="X13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="C14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="D14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="E14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="F14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="G14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="H14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="I14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.135189281195238</v>
+        <v>2.135189281195267</v>
       </c>
       <c r="S14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="T14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="U14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="V14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="W14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="X14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="C16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="D16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="F16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="G16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="H16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="I16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="J16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="K16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="L16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="M16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="N16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="O16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="P16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="R16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="S16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="T16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="U16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="V16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="W16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="X16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852653</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="32">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
   </sheetData>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.351842535330497</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H11" t="n">
-        <v>24.08580736495346</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I11" t="n">
-        <v>90.66940934332906</v>
+        <v>90.66940934332905</v>
       </c>
       <c r="J11" t="n">
         <v>199.6096953830069</v>
@@ -31765,31 +31765,31 @@
         <v>299.1631899035469</v>
       </c>
       <c r="L11" t="n">
-        <v>371.1383908941677</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M11" t="n">
-        <v>412.9629705818514</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N11" t="n">
-        <v>419.6451431853592</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O11" t="n">
-        <v>396.2590089746666</v>
+        <v>396.2590089746665</v>
       </c>
       <c r="P11" t="n">
-        <v>338.1978963836949</v>
+        <v>338.1978963836948</v>
       </c>
       <c r="Q11" t="n">
-        <v>253.9725355871714</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R11" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S11" t="n">
-        <v>53.59261177384375</v>
+        <v>53.59261177384374</v>
       </c>
       <c r="T11" t="n">
-        <v>10.29519069840926</v>
+        <v>10.29519069840925</v>
       </c>
       <c r="U11" t="n">
         <v>0.1881474028264397</v>
@@ -31835,43 +31835,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I12" t="n">
-        <v>43.32465585573749</v>
+        <v>43.32465585573748</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K12" t="n">
-        <v>155.1747464076595</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L12" t="n">
-        <v>273.2212851131573</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M12" t="n">
-        <v>318.8363527115865</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N12" t="n">
-        <v>327.275002240685</v>
+        <v>327.2750022406849</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>299.3926886886867</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>240.2890275983565</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>160.6268514682017</v>
       </c>
       <c r="R12" t="n">
-        <v>78.12787621577326</v>
+        <v>78.12787621577324</v>
       </c>
       <c r="S12" t="n">
         <v>23.37323790433734</v>
       </c>
       <c r="T12" t="n">
-        <v>5.072020220563405</v>
+        <v>5.072020220563404</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08278596660332006</v>
+        <v>0.08278596660332005</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H13" t="n">
-        <v>9.379514301456815</v>
+        <v>9.379514301456814</v>
       </c>
       <c r="I13" t="n">
         <v>31.7253919317169</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58536065688098</v>
+        <v>74.58536065688097</v>
       </c>
       <c r="K13" t="n">
         <v>122.5666592767055</v>
@@ -31938,16 +31938,16 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.33814543018269</v>
+        <v>88.33814543018268</v>
       </c>
       <c r="R13" t="n">
-        <v>47.43463981084393</v>
+        <v>47.43463981084392</v>
       </c>
       <c r="S13" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T13" t="n">
-        <v>4.507537547734866</v>
+        <v>4.507537547734865</v>
       </c>
       <c r="U13" t="n">
         <v>0.05754303252427496</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.351842535330497</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H14" t="n">
-        <v>24.08580736495346</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I14" t="n">
-        <v>90.66940934332906</v>
+        <v>90.66940934332905</v>
       </c>
       <c r="J14" t="n">
         <v>199.6096953830069</v>
@@ -32002,31 +32002,31 @@
         <v>299.1631899035469</v>
       </c>
       <c r="L14" t="n">
-        <v>371.1383908941677</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M14" t="n">
-        <v>412.9629705818514</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N14" t="n">
-        <v>419.6451431853592</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O14" t="n">
-        <v>396.2590089746666</v>
+        <v>396.2590089746665</v>
       </c>
       <c r="P14" t="n">
-        <v>338.1978963836949</v>
+        <v>338.1978963836948</v>
       </c>
       <c r="Q14" t="n">
-        <v>253.9725355871714</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R14" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S14" t="n">
-        <v>53.59261177384375</v>
+        <v>53.59261177384374</v>
       </c>
       <c r="T14" t="n">
-        <v>10.29519069840926</v>
+        <v>10.29519069840925</v>
       </c>
       <c r="U14" t="n">
         <v>0.1881474028264397</v>
@@ -32072,25 +32072,25 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I15" t="n">
-        <v>43.32465585573749</v>
+        <v>43.32465585573748</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L15" t="n">
-        <v>273.2212851131573</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M15" t="n">
-        <v>318.8363527115865</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N15" t="n">
-        <v>327.275002240685</v>
+        <v>327.2750022406849</v>
       </c>
       <c r="O15" t="n">
-        <v>155.1747464076593</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32099,16 +32099,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>78.12787621577326</v>
+        <v>78.12787621577324</v>
       </c>
       <c r="S15" t="n">
         <v>23.37323790433734</v>
       </c>
       <c r="T15" t="n">
-        <v>5.072020220563405</v>
+        <v>5.072020220563404</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08278596660332006</v>
+        <v>0.08278596660332005</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H16" t="n">
-        <v>9.379514301456815</v>
+        <v>9.379514301456814</v>
       </c>
       <c r="I16" t="n">
         <v>31.7253919317169</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58536065688098</v>
+        <v>74.58536065688097</v>
       </c>
       <c r="K16" t="n">
         <v>122.5666592767055</v>
@@ -32175,16 +32175,16 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.33814543018269</v>
+        <v>88.33814543018268</v>
       </c>
       <c r="R16" t="n">
-        <v>47.43463981084393</v>
+        <v>47.43463981084392</v>
       </c>
       <c r="S16" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T16" t="n">
-        <v>4.507537547734866</v>
+        <v>4.507537547734865</v>
       </c>
       <c r="U16" t="n">
         <v>0.05754303252427496</v>
@@ -32312,19 +32312,19 @@
         <v>43.32465585573748</v>
       </c>
       <c r="J18" t="n">
-        <v>87.74381865363425</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>82.88943562865728</v>
       </c>
       <c r="M18" t="n">
         <v>318.8363527115864</v>
       </c>
       <c r="N18" t="n">
-        <v>327.2750022406849</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>299.3926886886867</v>
@@ -32333,7 +32333,7 @@
         <v>240.2890275983565</v>
       </c>
       <c r="Q18" t="n">
-        <v>160.6268514682017</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>78.12787621577324</v>
@@ -32470,7 +32470,7 @@
         <v>90.66940934332905</v>
       </c>
       <c r="J20" t="n">
-        <v>199.6096953830069</v>
+        <v>199.6096953830068</v>
       </c>
       <c r="K20" t="n">
         <v>299.1631899035469</v>
@@ -32549,16 +32549,16 @@
         <v>43.32465585573748</v>
       </c>
       <c r="J21" t="n">
-        <v>87.74381865363425</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M21" t="n">
-        <v>318.8363527115864</v>
+        <v>37.77180037998761</v>
       </c>
       <c r="N21" t="n">
         <v>327.2750022406849</v>
@@ -32567,10 +32567,10 @@
         <v>299.3926886886867</v>
       </c>
       <c r="P21" t="n">
-        <v>240.2890275983565</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>160.6268514682017</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>78.12787621577324</v>
@@ -32786,13 +32786,13 @@
         <v>43.32465585573748</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M24" t="n">
         <v>318.8363527115864</v>
@@ -32801,13 +32801,13 @@
         <v>327.2750022406849</v>
       </c>
       <c r="O24" t="n">
-        <v>299.3926886886867</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>240.2890275983565</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>160.6268514682017</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>78.12787621577324</v>
@@ -33023,13 +33023,13 @@
         <v>43.32465585573748</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M27" t="n">
         <v>318.8363527115864</v>
@@ -33038,13 +33038,13 @@
         <v>327.2750022406849</v>
       </c>
       <c r="O27" t="n">
-        <v>299.3926886886867</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>240.2890275983565</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>160.6268514682017</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>78.12787621577324</v>
@@ -33260,13 +33260,13 @@
         <v>43.32465585573748</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M30" t="n">
         <v>318.8363527115864</v>
@@ -33275,13 +33275,13 @@
         <v>327.2750022406849</v>
       </c>
       <c r="O30" t="n">
-        <v>27.48015245425853</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>240.2890275983565</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>160.6268514682017</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>78.12787621577324</v>
@@ -33500,25 +33500,25 @@
         <v>118.8861671068078</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L33" t="n">
         <v>273.2212851131572</v>
       </c>
       <c r="M33" t="n">
-        <v>213.5603229421654</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>327.2750022406849</v>
       </c>
       <c r="O33" t="n">
-        <v>299.3926886886867</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>240.2890275983565</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>136.4677121376377</v>
       </c>
       <c r="R33" t="n">
         <v>78.12787621577324</v>
@@ -33734,13 +33734,13 @@
         <v>43.32465585573748</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M36" t="n">
         <v>318.8363527115864</v>
@@ -33749,13 +33749,13 @@
         <v>327.2750022406849</v>
       </c>
       <c r="O36" t="n">
-        <v>154.1039504924782</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>240.2890275983565</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>160.6268514682017</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>78.12787621577324</v>
@@ -33974,10 +33974,10 @@
         <v>118.8861671068078</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L39" t="n">
-        <v>140.0629417917377</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M39" t="n">
         <v>318.8363527115864</v>
@@ -33989,10 +33989,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>240.2890275983565</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>160.6268514682017</v>
       </c>
       <c r="R39" t="n">
         <v>78.12787621577324</v>
@@ -34211,7 +34211,7 @@
         <v>118.8861671068078</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L42" t="n">
         <v>273.2212851131572</v>
@@ -34220,13 +34220,13 @@
         <v>318.8363527115864</v>
       </c>
       <c r="N42" t="n">
-        <v>194.1166589192655</v>
+        <v>327.2750022406849</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>240.2890275983565</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34445,13 +34445,13 @@
         <v>43.32465585573748</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M45" t="n">
         <v>318.8363527115864</v>
@@ -34460,10 +34460,10 @@
         <v>327.2750022406849</v>
       </c>
       <c r="O45" t="n">
-        <v>299.3926886886867</v>
+        <v>18.32813635708783</v>
       </c>
       <c r="P45" t="n">
-        <v>129.00334283213</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,16 +35419,16 @@
         <v>632.1302708474111</v>
       </c>
       <c r="N11" t="n">
-        <v>627.5790040007525</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O11" t="n">
-        <v>546.9609788157252</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P11" t="n">
-        <v>428.763608799908</v>
+        <v>428.7636087999079</v>
       </c>
       <c r="Q11" t="n">
-        <v>243.9818363726266</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>281.7985444458791</v>
+        <v>110.0300330664206</v>
       </c>
       <c r="L12" t="n">
         <v>505.5072506367422</v>
@@ -35501,13 +35501,13 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>106.3146201840262</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>20.6450773821802</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734589</v>
+        <v>6.180450788734717</v>
       </c>
       <c r="K13" t="n">
-        <v>125.251437699349</v>
+        <v>125.2514376993492</v>
       </c>
       <c r="L13" t="n">
-        <v>209.3874211591745</v>
+        <v>209.3874211591746</v>
       </c>
       <c r="M13" t="n">
-        <v>229.9072321797123</v>
+        <v>229.9072321797124</v>
       </c>
       <c r="N13" t="n">
-        <v>230.5234203746083</v>
+        <v>230.5234203746084</v>
       </c>
       <c r="O13" t="n">
-        <v>198.6525764438038</v>
+        <v>198.6525764438039</v>
       </c>
       <c r="P13" t="n">
-        <v>149.8249136305787</v>
+        <v>149.8249136305788</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.13037242701469</v>
+        <v>27.13037242701482</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,16 +35656,16 @@
         <v>632.1302708474111</v>
       </c>
       <c r="N14" t="n">
-        <v>627.5790040007525</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O14" t="n">
-        <v>546.9609788157252</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P14" t="n">
-        <v>428.763608799908</v>
+        <v>428.7636087999079</v>
       </c>
       <c r="Q14" t="n">
-        <v>243.9818363726266</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L15" t="n">
         <v>505.5072506367422</v>
@@ -35738,10 +35738,10 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O15" t="n">
-        <v>406.4408212399443</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>18.32813635708801</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.180450788734589</v>
+        <v>6.180450788734717</v>
       </c>
       <c r="K16" t="n">
-        <v>125.251437699349</v>
+        <v>125.2514376993492</v>
       </c>
       <c r="L16" t="n">
-        <v>209.3874211591745</v>
+        <v>209.3874211591746</v>
       </c>
       <c r="M16" t="n">
-        <v>229.9072321797123</v>
+        <v>229.9072321797124</v>
       </c>
       <c r="N16" t="n">
-        <v>230.5234203746083</v>
+        <v>230.5234203746084</v>
       </c>
       <c r="O16" t="n">
-        <v>198.6525764438038</v>
+        <v>198.6525764438039</v>
       </c>
       <c r="P16" t="n">
-        <v>149.8249136305787</v>
+        <v>149.8249136305788</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.13037242701469</v>
+        <v>27.13037242701482</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>86.99722732737639</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>315.1754011522423</v>
       </c>
       <c r="M18" t="n">
         <v>642.4073825395681</v>
       </c>
       <c r="N18" t="n">
-        <v>675.2756645009051</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
         <v>550.6587635209718</v>
@@ -35981,7 +35981,7 @@
         <v>424.7773888239634</v>
       </c>
       <c r="Q18" t="n">
-        <v>230.7223651180293</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.94395593311297</v>
+        <v>63.94395593311295</v>
       </c>
       <c r="K19" t="n">
         <v>183.0149428437274</v>
@@ -36048,19 +36048,19 @@
         <v>267.1509263035529</v>
       </c>
       <c r="M19" t="n">
-        <v>287.6707373240907</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N19" t="n">
         <v>288.2869255189867</v>
       </c>
       <c r="O19" t="n">
-        <v>256.4160815881822</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P19" t="n">
         <v>207.5884187749571</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139308</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>187.6604060283944</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K20" t="n">
         <v>403.2187514297311</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>86.99722732737639</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M21" t="n">
-        <v>642.4073825395681</v>
+        <v>361.3428302079692</v>
       </c>
       <c r="N21" t="n">
         <v>675.2756645009051</v>
@@ -36215,10 +36215,10 @@
         <v>550.6587635209718</v>
       </c>
       <c r="P21" t="n">
-        <v>424.7773888239634</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>230.7223651180293</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.94395593311292</v>
+        <v>63.94395593311295</v>
       </c>
       <c r="K22" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L22" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M22" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N22" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O22" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P22" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L24" t="n">
-        <v>86.99722732737639</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M24" t="n">
         <v>642.4073825395681</v>
@@ -36449,13 +36449,13 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O24" t="n">
-        <v>550.6587635209718</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>424.7773888239634</v>
+        <v>136.4677121376378</v>
       </c>
       <c r="Q24" t="n">
-        <v>230.7223651180293</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.94395593311292</v>
+        <v>63.94395593311295</v>
       </c>
       <c r="K25" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L25" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M25" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N25" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O25" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P25" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L27" t="n">
-        <v>86.99722732737639</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M27" t="n">
         <v>642.4073825395681</v>
@@ -36686,13 +36686,13 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O27" t="n">
-        <v>550.6587635209718</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>424.7773888239634</v>
+        <v>18.32813635708801</v>
       </c>
       <c r="Q27" t="n">
-        <v>230.7223651180293</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.94395593311292</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K28" t="n">
         <v>183.0149428437273</v>
@@ -36771,7 +36771,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M30" t="n">
         <v>642.4073825395681</v>
@@ -36923,13 +36923,13 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O30" t="n">
-        <v>278.7462272865436</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>424.7773888239634</v>
+        <v>88.42365000691551</v>
       </c>
       <c r="Q30" t="n">
-        <v>230.7223651180293</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.94395593311292</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K31" t="n">
         <v>183.0149428437273</v>
@@ -37008,7 +37008,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L33" t="n">
         <v>505.5072506367422</v>
       </c>
       <c r="M33" t="n">
-        <v>537.131352770147</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O33" t="n">
-        <v>550.6587635209718</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>424.7773888239634</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>206.5632257874653</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M36" t="n">
         <v>642.4073825395681</v>
@@ -37397,13 +37397,13 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O36" t="n">
-        <v>405.3700253247633</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>424.7773888239634</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>230.7223651180293</v>
+        <v>22.07486456185819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L39" t="n">
-        <v>372.3489073153227</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M39" t="n">
         <v>642.4073825395681</v>
@@ -37634,13 +37634,13 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>42.61857427611378</v>
       </c>
       <c r="P39" t="n">
-        <v>424.7773888239634</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L42" t="n">
         <v>505.5072506367422</v>
@@ -37868,16 +37868,16 @@
         <v>642.4073825395681</v>
       </c>
       <c r="N42" t="n">
-        <v>542.1173211794858</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O42" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>424.7773888239634</v>
+        <v>136.4677121376378</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.94395593311285</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K43" t="n">
         <v>183.0149428437273</v>
@@ -37944,19 +37944,19 @@
         <v>267.1509263035528</v>
       </c>
       <c r="M43" t="n">
-        <v>287.6707373240905</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N43" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O43" t="n">
-        <v>256.416081588182</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P43" t="n">
-        <v>207.5884187749569</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.89387757139295</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M45" t="n">
         <v>642.4073825395681</v>
@@ -38108,10 +38108,10 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O45" t="n">
-        <v>550.6587635209718</v>
+        <v>269.5942111893729</v>
       </c>
       <c r="P45" t="n">
-        <v>313.491704057737</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>63.94395593311285</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K46" t="n">
         <v>183.0149428437273</v>
@@ -38181,19 +38181,19 @@
         <v>267.1509263035528</v>
       </c>
       <c r="M46" t="n">
-        <v>287.6707373240905</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N46" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O46" t="n">
-        <v>256.416081588182</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P46" t="n">
-        <v>207.5884187749569</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.89387757139295</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
